--- a/contest_results.xlsx
+++ b/contest_results.xlsx
@@ -14,7 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>TG Username</t>
+  </si>
   <si>
     <t>User ID</t>
   </si>
@@ -22,13 +28,19 @@
     <t>Result ID</t>
   </si>
   <si>
-    <t>Total Points</t>
-  </si>
-  <si>
-    <t>TG Username</t>
+    <t>Points</t>
   </si>
   <si>
     <t>n3ksmrnv</t>
+  </si>
+  <si>
+    <t>87968е7кнапгролдщфзыв</t>
+  </si>
+  <si>
+    <t>\-09876rtyguhjiop09f8uy7stdug</t>
+  </si>
+  <si>
+    <t>kochnev_v_k</t>
   </si>
 </sst>
 </file>
@@ -340,30 +352,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>533643668</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>533643668</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>1189315800</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>2000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>1189315800</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
